--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/10/seed3/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABD/10/seed3/result_data_KNN.xlsx
@@ -488,7 +488,7 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.558000000000002</v>
+        <v>-8.01</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -550,7 +550,7 @@
         <v>-22.82</v>
       </c>
       <c r="B7" t="n">
-        <v>5.412000000000001</v>
+        <v>5.697000000000001</v>
       </c>
       <c r="C7" t="n">
         <v>-11.52</v>
@@ -598,7 +598,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-21.274</v>
+        <v>-21.604</v>
       </c>
       <c r="B10" t="n">
         <v>6.17</v>
@@ -632,7 +632,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-21.576</v>
+        <v>-21.606</v>
       </c>
       <c r="B12" t="n">
         <v>4.54</v>
@@ -686,7 +686,7 @@
         <v>-22.78</v>
       </c>
       <c r="B15" t="n">
-        <v>4.902000000000001</v>
+        <v>5.072000000000001</v>
       </c>
       <c r="C15" t="n">
         <v>-13.12</v>
@@ -734,7 +734,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-22.066</v>
+        <v>-22.002</v>
       </c>
       <c r="B18" t="n">
         <v>4.35</v>
@@ -743,7 +743,7 @@
         <v>-15.14</v>
       </c>
       <c r="D18" t="n">
-        <v>-8.891999999999999</v>
+        <v>-8.638</v>
       </c>
       <c r="E18" t="n">
         <v>17.03</v>
@@ -760,7 +760,7 @@
         <v>-12.15</v>
       </c>
       <c r="D19" t="n">
-        <v>-7.656000000000001</v>
+        <v>-7.912000000000001</v>
       </c>
       <c r="E19" t="n">
         <v>16.87</v>
@@ -771,7 +771,7 @@
         <v>-19.14</v>
       </c>
       <c r="B20" t="n">
-        <v>7.610000000000001</v>
+        <v>7.633</v>
       </c>
       <c r="C20" t="n">
         <v>-14.88</v>
@@ -896,7 +896,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-8.596</v>
+        <v>-8.358000000000001</v>
       </c>
       <c r="E27" t="n">
         <v>15.34</v>
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.561999999999999</v>
+        <v>5.645</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>7.312</v>
+        <v>5.694000000000001</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>7.506</v>
+        <v>6.508</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -1057,7 +1057,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>-19.572</v>
+        <v>-19.92</v>
       </c>
       <c r="B37" t="n">
         <v>9.41</v>
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.35</v>
+        <v>9.327999999999999</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1151,7 +1151,7 @@
         <v>-13.45</v>
       </c>
       <c r="D42" t="n">
-        <v>-7.42</v>
+        <v>-8.258000000000001</v>
       </c>
       <c r="E42" t="n">
         <v>16.31</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-8.633999999999999</v>
+        <v>-8.125999999999999</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1236,7 +1236,7 @@
         <v>-11.84</v>
       </c>
       <c r="D47" t="n">
-        <v>-7.864</v>
+        <v>-7.617999999999999</v>
       </c>
       <c r="E47" t="n">
         <v>17.05</v>
@@ -1363,7 +1363,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>-21.842</v>
+        <v>-21.942</v>
       </c>
       <c r="B55" t="n">
         <v>5.38</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-8.436</v>
+        <v>-8.370999999999999</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1584,10 +1584,10 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>-21.586</v>
+        <v>-21.50700000000001</v>
       </c>
       <c r="B68" t="n">
-        <v>4.665999999999999</v>
+        <v>5.881</v>
       </c>
       <c r="C68" t="n">
         <v>-9.98</v>
@@ -1678,7 +1678,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-8.673999999999999</v>
+        <v>-8.214000000000002</v>
       </c>
       <c r="E73" t="n">
         <v>16.21</v>
@@ -1723,7 +1723,7 @@
         <v>-20.94</v>
       </c>
       <c r="B76" t="n">
-        <v>6.286</v>
+        <v>6.341000000000001</v>
       </c>
       <c r="C76" t="n">
         <v>-15.06</v>
@@ -1737,7 +1737,7 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>-21.352</v>
+        <v>-20.637</v>
       </c>
       <c r="B77" t="n">
         <v>10.09</v>
@@ -1754,7 +1754,7 @@
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>-19.968</v>
+        <v>-20.126</v>
       </c>
       <c r="B78" t="n">
         <v>9.640000000000001</v>
@@ -1910,7 +1910,7 @@
         <v>-23.05</v>
       </c>
       <c r="B87" t="n">
-        <v>4.234</v>
+        <v>4.462</v>
       </c>
       <c r="C87" t="n">
         <v>-15.19</v>
@@ -1927,7 +1927,7 @@
         <v>-22.69</v>
       </c>
       <c r="B88" t="n">
-        <v>4.610000000000001</v>
+        <v>4.853999999999999</v>
       </c>
       <c r="C88" t="n">
         <v>-14.65</v>
@@ -2052,7 +2052,7 @@
         <v>-10.47</v>
       </c>
       <c r="D95" t="n">
-        <v>-8.33</v>
+        <v>-8.011999999999999</v>
       </c>
       <c r="E95" t="n">
         <v>16.44</v>
@@ -2063,7 +2063,7 @@
         <v>-20.86</v>
       </c>
       <c r="B96" t="n">
-        <v>6.35</v>
+        <v>6.469000000000001</v>
       </c>
       <c r="C96" t="n">
         <v>-10.59</v>
@@ -2097,7 +2097,7 @@
         <v>-21.08</v>
       </c>
       <c r="B98" t="n">
-        <v>6.302</v>
+        <v>5.828</v>
       </c>
       <c r="C98" t="n">
         <v>-13.95</v>
@@ -2148,13 +2148,13 @@
         <v>-19.85</v>
       </c>
       <c r="B101" t="n">
-        <v>8.353999999999999</v>
+        <v>8.193999999999999</v>
       </c>
       <c r="C101" t="n">
         <v>-11.07</v>
       </c>
       <c r="D101" t="n">
-        <v>-8.112</v>
+        <v>-8.16</v>
       </c>
       <c r="E101" t="n">
         <v>16.32</v>
@@ -2165,7 +2165,7 @@
         <v>-20.36</v>
       </c>
       <c r="B102" t="n">
-        <v>7.998</v>
+        <v>7.739999999999999</v>
       </c>
       <c r="C102" t="n">
         <v>-12</v>
